--- a/ART4.xlsx
+++ b/ART4.xlsx
@@ -528,9 +528,6 @@
     <t>9 ввод спецсимволов</t>
   </si>
   <si>
-    <t>9 ввод невозможен, поле не принимает спецсимволы, поле подсвечивается красным, внизу под полем красными буквами сообщение  "Поле заполнено не полностью"</t>
-  </si>
-  <si>
     <t>8 ввод невозможен, поле не принимает спецсимволы, поле подсвечивается красным, внизу под полем красными буквами сообщение  "Поле заполнено не полностью"</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
     <t>отправка формы анкеты с валидными значениями</t>
   </si>
   <si>
-    <t>2 заполнить поля анкеты ИМЯ: Елена, ФАМИЛИЯ: Семенова, ОТЧЕСТВО: Константиновна, ТЕЛЕФОН: 6548463532, ДАТА РОЖДЕНИЯ: 28.05.1980, ПАСПОРТ: 402143684648, нажать кнопку ОТПРАВИТЬ</t>
-  </si>
-  <si>
     <t>2 анкета принята</t>
   </si>
   <si>
@@ -628,6 +622,12 @@
   </si>
   <si>
     <t>5 после обновления стрвницы с анкетой в поле ИМЯ ввести "чайник", в поле ФАМИЛИЯ ввести "плохой", в поле ОТЧЕСТВО ввести "ошибка", в поле ТЕЛЕФОН ввести "1230456078", в поле ДАТА РОЖДЕНИЯ ввести "00000000", в поле ПАСПОРТ "0000000000", нажать кнопку Отправить</t>
+  </si>
+  <si>
+    <t>2 заполнить поля анкеты ИМЯ: Елена, ФАМИЛИЯ: Семенова, ОТЧЕСТВО: Константиновна, ТЕЛЕФОН: 6548463532, ДАТА РОЖДЕНИЯ: 28.05.1980, ПАСПОРТ: 4021436848, нажать кнопку ОТПРАВИТЬ</t>
+  </si>
+  <si>
+    <t>9 ввод невозможен,,,,,, поле не принимает спецсимволы, поле подсвечивается красным, внизу под полем красными буквами сообщение  "Поле заполнено не полностью"</t>
   </si>
 </sst>
 </file>
@@ -810,17 +810,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:H871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F111" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="F89" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1174,14 +1174,14 @@
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="8">
@@ -1342,12 +1342,12 @@
       <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1554,12 +1554,12 @@
       <c r="A26" s="14">
         <v>2</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -1724,12 +1724,12 @@
       <c r="A37" s="18">
         <v>3</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -1894,12 +1894,12 @@
       <c r="A48" s="18">
         <v>4</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -2060,12 +2060,12 @@
       <c r="A58" s="18">
         <v>5</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -2262,12 +2262,12 @@
       <c r="A71" s="14">
         <v>6</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -2448,12 +2448,12 @@
       <c r="A83" s="14">
         <v>7</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="19" t="s">
         <v>152</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="10" t="s">
@@ -2505,7 +2505,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>158</v>
@@ -2537,7 +2537,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>163</v>
@@ -2588,10 +2588,10 @@
         <v>169</v>
       </c>
       <c r="G91" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="14.25">
@@ -2628,12 +2628,12 @@
       <c r="A95" s="14">
         <v>8</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>172</v>
+      <c r="B95" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="10" t="s">
@@ -2653,13 +2653,13 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G96" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="H96" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="14.25">
@@ -2716,12 +2716,12 @@
       <c r="A102" s="14">
         <v>9</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>175</v>
+      <c r="B102" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="10" t="s">
@@ -2741,13 +2741,13 @@
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H103" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="57">
@@ -2757,13 +2757,13 @@
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.25">
@@ -2790,12 +2790,12 @@
       <c r="A107" s="14">
         <v>10</v>
       </c>
-      <c r="B107" s="17" t="s">
-        <v>181</v>
+      <c r="B107" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="10" t="s">
@@ -2815,13 +2815,13 @@
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="14.25">
@@ -2841,13 +2841,13 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H110" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="142.5">
@@ -2857,13 +2857,13 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="14.25">
@@ -2940,12 +2940,12 @@
       <c r="A119" s="14">
         <v>11</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>189</v>
+      <c r="B119" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="10" t="s">
@@ -2965,13 +2965,13 @@
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H120" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="99.75">
@@ -2981,13 +2981,13 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.5">
@@ -2997,13 +2997,13 @@
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="71.25">
@@ -3013,13 +3013,13 @@
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H123" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="14.25">
@@ -7516,31 +7516,22 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="A107:A118"/>
-    <mergeCell ref="B107:B118"/>
-    <mergeCell ref="C107:C118"/>
-    <mergeCell ref="D107:D118"/>
-    <mergeCell ref="E107:E118"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="C83:C94"/>
-    <mergeCell ref="D83:D94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D101"/>
-    <mergeCell ref="A12:A25"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="A58:A70"/>
-    <mergeCell ref="B58:B70"/>
-    <mergeCell ref="C58:C70"/>
-    <mergeCell ref="D58:D70"/>
+    <mergeCell ref="E71:E82"/>
+    <mergeCell ref="E83:E94"/>
+    <mergeCell ref="A83:A94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
     <mergeCell ref="E58:E70"/>
     <mergeCell ref="B12:B25"/>
     <mergeCell ref="E12:E25"/>
@@ -7555,27 +7546,36 @@
     <mergeCell ref="E26:E36"/>
     <mergeCell ref="D37:D47"/>
     <mergeCell ref="E37:E47"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C83:C94"/>
+    <mergeCell ref="D83:D94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D101"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="C58:C70"/>
+    <mergeCell ref="D58:D70"/>
     <mergeCell ref="B83:B94"/>
-    <mergeCell ref="E83:E94"/>
-    <mergeCell ref="A83:A94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="E95:E101"/>
     <mergeCell ref="A71:A82"/>
     <mergeCell ref="B71:B82"/>
     <mergeCell ref="C71:C82"/>
     <mergeCell ref="D71:D82"/>
-    <mergeCell ref="E71:E82"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="A107:A118"/>
+    <mergeCell ref="B107:B118"/>
+    <mergeCell ref="C107:C118"/>
+    <mergeCell ref="D107:D118"/>
+    <mergeCell ref="E107:E118"/>
+    <mergeCell ref="B119:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
